--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\凉城以北\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\凉城以北\Desktop\项目实训\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5053FE05-75BE-4691-A88C-5528A15B5D96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D49FB0C-FD28-43B2-B788-288296DEF11B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3435" yWindow="2085" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{D090440D-AE29-4C4A-95EB-F9BA0D8507EA}"/>
+    <workbookView xWindow="11565" yWindow="2265" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{D090440D-AE29-4C4A-95EB-F9BA0D8507EA}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="46">
   <si>
     <t>username</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -169,6 +169,30 @@
   </si>
   <si>
     <t>aaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ad min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>326831XUliang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ad ddd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aa aaa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>326831 XUliang</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -533,10 +557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D311FD3-42F0-4184-AC72-0C7141B96CF2}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -651,6 +675,102 @@
       </c>
       <c r="B14" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -664,7 +784,7 @@
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\凉城以北\Desktop\项目实训\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D49FB0C-FD28-43B2-B788-288296DEF11B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E0BF87-5784-4B5A-B3FF-54FA9B9D48CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11565" yWindow="2265" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{D090440D-AE29-4C4A-95EB-F9BA0D8507EA}"/>
+    <workbookView xWindow="3225" yWindow="2910" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{D090440D-AE29-4C4A-95EB-F9BA0D8507EA}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="160">
   <si>
     <t>username</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -153,10 +153,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>aaaaaaa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>a 1234567</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -194,6 +190,385 @@
   <si>
     <t>326831 XUliang</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a12345678</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2843833800@qq.com</t>
+  </si>
+  <si>
+    <t>2843833801@qq.com</t>
+  </si>
+  <si>
+    <t>2843833802@qq.com</t>
+  </si>
+  <si>
+    <t>2843833803@qq.com</t>
+  </si>
+  <si>
+    <t>2843833804@qq.com</t>
+  </si>
+  <si>
+    <t>2843833805@qq.com</t>
+  </si>
+  <si>
+    <t>2843833806@qq.com</t>
+  </si>
+  <si>
+    <t>2843833807@qq.com</t>
+  </si>
+  <si>
+    <t>2843833808@qq.com</t>
+  </si>
+  <si>
+    <t>2843833809@qq.com</t>
+  </si>
+  <si>
+    <t>2843833810@qq.com</t>
+  </si>
+  <si>
+    <t>2843833811@qq.com</t>
+  </si>
+  <si>
+    <t>2843833812@qq.com</t>
+  </si>
+  <si>
+    <t>2843833813@qq.com</t>
+  </si>
+  <si>
+    <t>2843833814@qq.com</t>
+  </si>
+  <si>
+    <t>2843833815@qq.com</t>
+  </si>
+  <si>
+    <t>2843833816@qq.com</t>
+  </si>
+  <si>
+    <t>a12345679</t>
+  </si>
+  <si>
+    <t>a12345680</t>
+  </si>
+  <si>
+    <t>a12345681</t>
+  </si>
+  <si>
+    <t>a12345682</t>
+  </si>
+  <si>
+    <t>a12345683</t>
+  </si>
+  <si>
+    <t>a12345684</t>
+  </si>
+  <si>
+    <t>a12345685</t>
+  </si>
+  <si>
+    <t>a12345686</t>
+  </si>
+  <si>
+    <t>a12345687</t>
+  </si>
+  <si>
+    <t>a12345688</t>
+  </si>
+  <si>
+    <t>a12345689</t>
+  </si>
+  <si>
+    <t>a12345690</t>
+  </si>
+  <si>
+    <t>a12345691</t>
+  </si>
+  <si>
+    <t>a12345692</t>
+  </si>
+  <si>
+    <t>a12345693</t>
+  </si>
+  <si>
+    <t>a12345694</t>
+  </si>
+  <si>
+    <t>admin@</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin￥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin……</t>
+  </si>
+  <si>
+    <t>admin&amp;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin（</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin|</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin“</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin·</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin《</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a12345695</t>
+  </si>
+  <si>
+    <t>a12345696</t>
+  </si>
+  <si>
+    <t>a12345697</t>
+  </si>
+  <si>
+    <t>a12345698</t>
+  </si>
+  <si>
+    <t>a12345699</t>
+  </si>
+  <si>
+    <t>a12345700</t>
+  </si>
+  <si>
+    <t>a12345701</t>
+  </si>
+  <si>
+    <t>a12345702</t>
+  </si>
+  <si>
+    <t>a12345703</t>
+  </si>
+  <si>
+    <t>#@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>^@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>)@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2843833817@qq.com</t>
+  </si>
+  <si>
+    <t>2843833818@qq.com</t>
+  </si>
+  <si>
+    <t>2843833819@qq.com</t>
+  </si>
+  <si>
+    <t>2843833820@qq.com</t>
+  </si>
+  <si>
+    <t>2843833821@qq.com</t>
+  </si>
+  <si>
+    <t>2843833822@qq.com</t>
+  </si>
+  <si>
+    <t>2843833823@qq.com</t>
+  </si>
+  <si>
+    <t>2843833824@qq.com</t>
+  </si>
+  <si>
+    <t>2843833825@qq.com</t>
+  </si>
+  <si>
+    <t>2843833826@qq.com</t>
+  </si>
+  <si>
+    <t>2843833827@qq.com</t>
+  </si>
+  <si>
+    <t>2843833828@qq.com</t>
+  </si>
+  <si>
+    <t>2843833829@qq.com</t>
+  </si>
+  <si>
+    <t>2843833830@qq.com</t>
+  </si>
+  <si>
+    <t>2843833831@qq.com</t>
+  </si>
+  <si>
+    <t>2843833832@qq.com</t>
+  </si>
+  <si>
+    <t>2843833833@qq.com</t>
+  </si>
+  <si>
+    <t>2843833834@qq.com</t>
+  </si>
+  <si>
+    <t>2843833835@qq.com</t>
+  </si>
+  <si>
+    <t>2843833836@qq.com</t>
+  </si>
+  <si>
+    <t>2843833837@qq.com</t>
+  </si>
+  <si>
+    <t>2843833838@qq.com</t>
+  </si>
+  <si>
+    <t>2843833839@qq.com</t>
+  </si>
+  <si>
+    <t>2843833840@qq.com</t>
+  </si>
+  <si>
+    <t>2843833841@qq.com</t>
+  </si>
+  <si>
+    <t>2843833842@qq.com</t>
+  </si>
+  <si>
+    <t>2843833843@qq.com</t>
+  </si>
+  <si>
+    <t>2843833844@qq.com</t>
+  </si>
+  <si>
+    <t>2843833845@qq.com</t>
+  </si>
+  <si>
+    <t>2843833846@qq.com</t>
+  </si>
+  <si>
+    <t>2843833847@qq.com</t>
+  </si>
+  <si>
+    <t>2843833847@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abc@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a123@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>123@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>啊@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a12345704</t>
+  </si>
+  <si>
+    <t>a12345705</t>
+  </si>
+  <si>
+    <t>a12345706</t>
+  </si>
+  <si>
+    <t>a12345707</t>
+  </si>
+  <si>
+    <t>a12345708</t>
+  </si>
+  <si>
+    <t>a12345709</t>
+  </si>
+  <si>
+    <t>a12345710</t>
   </si>
 </sst>
 </file>
@@ -679,15 +1054,15 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" t="s">
         <v>40</v>
-      </c>
-      <c r="B15" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B16" t="s">
         <v>4</v>
@@ -695,15 +1070,15 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B18" t="s">
         <v>4</v>
@@ -711,34 +1086,34 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" t="s">
         <v>43</v>
-      </c>
-      <c r="B20" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -746,7 +1121,7 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -754,23 +1129,23 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -781,10 +1156,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14D44AF4-8208-4DDE-BED0-680BBCB8A309}">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="I60" sqref="I60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -828,7 +1203,7 @@
         <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -842,7 +1217,7 @@
         <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -856,7 +1231,7 @@
         <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -870,7 +1245,7 @@
         <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -884,7 +1259,7 @@
         <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -898,7 +1273,7 @@
         <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -912,7 +1287,7 @@
         <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -920,13 +1295,13 @@
         <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -934,13 +1309,13 @@
         <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -948,13 +1323,13 @@
         <v>26</v>
       </c>
       <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" t="s">
         <v>36</v>
       </c>
-      <c r="C12" t="s">
-        <v>37</v>
-      </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -962,13 +1337,13 @@
         <v>27</v>
       </c>
       <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s">
         <v>36</v>
       </c>
-      <c r="C13" t="s">
-        <v>37</v>
-      </c>
       <c r="D13" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -976,13 +1351,13 @@
         <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -990,13 +1365,13 @@
         <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D15" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -1004,13 +1379,13 @@
         <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D16" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -1018,13 +1393,13 @@
         <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D17" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -1038,7 +1413,7 @@
         <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -1052,7 +1427,7 @@
         <v>32</v>
       </c>
       <c r="D19" t="s">
-        <v>14</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -1066,7 +1441,7 @@
         <v>34</v>
       </c>
       <c r="D20" t="s">
-        <v>14</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -1080,7 +1455,7 @@
         <v>34</v>
       </c>
       <c r="D21" t="s">
-        <v>14</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -1094,7 +1469,7 @@
         <v>16</v>
       </c>
       <c r="D22" t="s">
-        <v>14</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -1108,7 +1483,7 @@
         <v>32</v>
       </c>
       <c r="D23" t="s">
-        <v>35</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -1122,7 +1497,7 @@
         <v>34</v>
       </c>
       <c r="D24" t="s">
-        <v>35</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -1136,7 +1511,7 @@
         <v>34</v>
       </c>
       <c r="D25" t="s">
-        <v>35</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -1144,13 +1519,13 @@
         <v>33</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D26" t="s">
-        <v>35</v>
+        <v>121</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -1158,13 +1533,13 @@
         <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D27" t="s">
-        <v>14</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -1172,13 +1547,13 @@
         <v>33</v>
       </c>
       <c r="B28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" t="s">
         <v>36</v>
       </c>
-      <c r="C28" t="s">
-        <v>37</v>
-      </c>
       <c r="D28" t="s">
-        <v>35</v>
+        <v>123</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -1186,13 +1561,13 @@
         <v>33</v>
       </c>
       <c r="B29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" t="s">
         <v>36</v>
       </c>
-      <c r="C29" t="s">
-        <v>37</v>
-      </c>
       <c r="D29" t="s">
-        <v>14</v>
+        <v>124</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -1200,13 +1575,13 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D30" t="s">
-        <v>35</v>
+        <v>125</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -1214,13 +1589,13 @@
         <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D31" t="s">
-        <v>14</v>
+        <v>126</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -1228,13 +1603,13 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D32" t="s">
-        <v>35</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -1242,13 +1617,13 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D33" t="s">
-        <v>14</v>
+        <v>128</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -1256,37 +1631,521 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D34" t="s">
-        <v>35</v>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>80</v>
+      </c>
+      <c r="B35" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" t="s">
+        <v>46</v>
+      </c>
+      <c r="D35" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>81</v>
+      </c>
+      <c r="B36" t="s">
+        <v>64</v>
+      </c>
+      <c r="C36" t="s">
+        <v>64</v>
+      </c>
+      <c r="D36" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>82</v>
+      </c>
+      <c r="B37" t="s">
+        <v>65</v>
+      </c>
+      <c r="C37" t="s">
+        <v>65</v>
+      </c>
+      <c r="D37" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>83</v>
+      </c>
+      <c r="B38" t="s">
+        <v>66</v>
+      </c>
+      <c r="C38" t="s">
+        <v>66</v>
+      </c>
+      <c r="D38" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>84</v>
+      </c>
+      <c r="B39" t="s">
+        <v>67</v>
+      </c>
+      <c r="C39" t="s">
+        <v>67</v>
+      </c>
+      <c r="D39" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>85</v>
+      </c>
+      <c r="B40" t="s">
+        <v>68</v>
+      </c>
+      <c r="C40" t="s">
+        <v>68</v>
+      </c>
+      <c r="D40" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>86</v>
+      </c>
+      <c r="B41" t="s">
+        <v>69</v>
+      </c>
+      <c r="C41" t="s">
+        <v>69</v>
+      </c>
+      <c r="D41" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>87</v>
+      </c>
+      <c r="B42" t="s">
+        <v>70</v>
+      </c>
+      <c r="C42" t="s">
+        <v>70</v>
+      </c>
+      <c r="D42" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>88</v>
+      </c>
+      <c r="B43" t="s">
+        <v>71</v>
+      </c>
+      <c r="C43" t="s">
+        <v>71</v>
+      </c>
+      <c r="D43" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>89</v>
+      </c>
+      <c r="B44" t="s">
+        <v>72</v>
+      </c>
+      <c r="C44" t="s">
+        <v>72</v>
+      </c>
+      <c r="D44" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>90</v>
+      </c>
+      <c r="B45" t="s">
+        <v>73</v>
+      </c>
+      <c r="C45" t="s">
+        <v>73</v>
+      </c>
+      <c r="D45" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>91</v>
+      </c>
+      <c r="B46" t="s">
+        <v>74</v>
+      </c>
+      <c r="C46" t="s">
+        <v>74</v>
+      </c>
+      <c r="D46" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>92</v>
+      </c>
+      <c r="B47" t="s">
+        <v>75</v>
+      </c>
+      <c r="C47" t="s">
+        <v>75</v>
+      </c>
+      <c r="D47" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>93</v>
+      </c>
+      <c r="B48" t="s">
+        <v>76</v>
+      </c>
+      <c r="C48" t="s">
+        <v>76</v>
+      </c>
+      <c r="D48" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>94</v>
+      </c>
+      <c r="B49" t="s">
+        <v>77</v>
+      </c>
+      <c r="C49" t="s">
+        <v>77</v>
+      </c>
+      <c r="D49" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>95</v>
+      </c>
+      <c r="B50" t="s">
+        <v>78</v>
+      </c>
+      <c r="C50" t="s">
+        <v>78</v>
+      </c>
+      <c r="D50" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>96</v>
+      </c>
+      <c r="B51" t="s">
+        <v>79</v>
+      </c>
+      <c r="C51" t="s">
+        <v>79</v>
+      </c>
+      <c r="D51" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>45</v>
+      </c>
+      <c r="B52" t="s">
+        <v>98</v>
+      </c>
+      <c r="C52" t="s">
+        <v>98</v>
+      </c>
+      <c r="D52" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>45</v>
+      </c>
+      <c r="B53" t="s">
+        <v>99</v>
+      </c>
+      <c r="C53" t="s">
+        <v>99</v>
+      </c>
+      <c r="D53" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>45</v>
+      </c>
+      <c r="B54" t="s">
+        <v>100</v>
+      </c>
+      <c r="C54" t="s">
+        <v>100</v>
+      </c>
+      <c r="D54" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>45</v>
+      </c>
+      <c r="B55" t="s">
+        <v>101</v>
+      </c>
+      <c r="C55" t="s">
+        <v>101</v>
+      </c>
+      <c r="D55" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>45</v>
+      </c>
+      <c r="B56" t="s">
+        <v>102</v>
+      </c>
+      <c r="C56" t="s">
+        <v>102</v>
+      </c>
+      <c r="D56" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>45</v>
+      </c>
+      <c r="B57" t="s">
+        <v>103</v>
+      </c>
+      <c r="C57" t="s">
+        <v>103</v>
+      </c>
+      <c r="D57" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>45</v>
+      </c>
+      <c r="B58" t="s">
+        <v>104</v>
+      </c>
+      <c r="C58" t="s">
+        <v>104</v>
+      </c>
+      <c r="D58" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>45</v>
+      </c>
+      <c r="B59" t="s">
+        <v>105</v>
+      </c>
+      <c r="C59" t="s">
+        <v>105</v>
+      </c>
+      <c r="D59" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>45</v>
+      </c>
+      <c r="B60" t="s">
+        <v>106</v>
+      </c>
+      <c r="C60" t="s">
+        <v>106</v>
+      </c>
+      <c r="D60" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>45</v>
+      </c>
+      <c r="B61" t="s">
+        <v>153</v>
+      </c>
+      <c r="C61" t="s">
+        <v>153</v>
+      </c>
+      <c r="D61" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>45</v>
+      </c>
+      <c r="B62" t="s">
+        <v>154</v>
+      </c>
+      <c r="C62" t="s">
+        <v>154</v>
+      </c>
+      <c r="D62" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>45</v>
+      </c>
+      <c r="B63" t="s">
+        <v>155</v>
+      </c>
+      <c r="C63" t="s">
+        <v>155</v>
+      </c>
+      <c r="D63" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>45</v>
+      </c>
+      <c r="B64" t="s">
+        <v>156</v>
+      </c>
+      <c r="C64" t="s">
+        <v>156</v>
+      </c>
+      <c r="D64" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>45</v>
+      </c>
+      <c r="B65" t="s">
+        <v>157</v>
+      </c>
+      <c r="C65" t="s">
+        <v>157</v>
+      </c>
+      <c r="D65" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>45</v>
+      </c>
+      <c r="B66" t="s">
+        <v>158</v>
+      </c>
+      <c r="C66" t="s">
+        <v>158</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>45</v>
+      </c>
+      <c r="B67" t="s">
+        <v>159</v>
+      </c>
+      <c r="C67" t="s">
+        <v>159</v>
+      </c>
+      <c r="D67" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{3C952E01-087C-4CF5-A5FB-D32013BF1BB4}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{2EBD3802-2B45-46F5-9F64-E408B316F292}"/>
-    <hyperlink ref="D18" r:id="rId3" xr:uid="{1B83FB61-A191-4384-B498-A88A8E30FF94}"/>
-    <hyperlink ref="D4" r:id="rId4" xr:uid="{82D91DA2-C5EB-4BC9-8FF9-618B35E2A826}"/>
-    <hyperlink ref="D5" r:id="rId5" xr:uid="{2D5D5782-C7A6-43D6-B10A-264A2225CFBB}"/>
-    <hyperlink ref="D10" r:id="rId6" xr:uid="{844376A9-AE2E-485E-B793-F59A2A80BE19}"/>
-    <hyperlink ref="D12" r:id="rId7" xr:uid="{4E95432C-D141-4646-B876-95F22C6150E4}"/>
-    <hyperlink ref="D14" r:id="rId8" xr:uid="{D439444B-676A-4758-94BA-FF2E8EBC4050}"/>
-    <hyperlink ref="D16" r:id="rId9" xr:uid="{21547378-D823-4BAF-9B16-D8413832023C}"/>
-    <hyperlink ref="D19" r:id="rId10" xr:uid="{F3C169D0-3874-4351-952C-5C5CAA4BF1E9}"/>
-    <hyperlink ref="D20" r:id="rId11" xr:uid="{9130D02B-BC90-463F-A0C7-C2E3F5D9BFB4}"/>
-    <hyperlink ref="D21" r:id="rId12" xr:uid="{5193A3D6-AA1F-42C0-95F3-F67F54030EE2}"/>
-    <hyperlink ref="D22" r:id="rId13" xr:uid="{834D3DED-6D6C-4AC6-8873-84A110323FD1}"/>
-    <hyperlink ref="D27" r:id="rId14" xr:uid="{5F107DEF-4D80-491E-B871-801B89284C78}"/>
-    <hyperlink ref="D29" r:id="rId15" xr:uid="{FF69FF7F-7CBD-4D02-A789-B719F6FCF213}"/>
-    <hyperlink ref="D31" r:id="rId16" xr:uid="{181EB124-D94B-41CC-882B-D55EFB54C32B}"/>
-    <hyperlink ref="D33" r:id="rId17" xr:uid="{E15ACC4A-D9AC-415E-8276-DB6436F0082D}"/>
+    <hyperlink ref="A35" r:id="rId2" xr:uid="{61D11A16-211C-4A53-9067-ECF113F6416A}"/>
+    <hyperlink ref="D53" r:id="rId3" xr:uid="{13B31FDF-4FC2-4BF4-BF56-B446948EA7CB}"/>
+    <hyperlink ref="D54" r:id="rId4" xr:uid="{E8F81883-18F2-4A2A-B8CB-4FBF0D636B16}"/>
+    <hyperlink ref="D55" r:id="rId5" xr:uid="{AF5942B7-04CD-465E-A3A4-BF5CA4ECD539}"/>
+    <hyperlink ref="D56" r:id="rId6" xr:uid="{F51F76B6-0A64-4B42-85C5-F676E5F67DF3}"/>
+    <hyperlink ref="D57" r:id="rId7" xr:uid="{0542452D-F49E-4B19-95C9-51EB1C528448}"/>
+    <hyperlink ref="D58" r:id="rId8" xr:uid="{7BA80E44-12FB-4B7B-AA7B-3A8F6A518924}"/>
+    <hyperlink ref="D3:D5" r:id="rId9" display="2843833799@qq.com" xr:uid="{D6DEA874-167A-445C-8220-2E566751DD6F}"/>
+    <hyperlink ref="D6" r:id="rId10" display="2843833799@qq.com" xr:uid="{1C292D8E-3D0D-4993-85D8-F2840955D2B0}"/>
+    <hyperlink ref="D10" r:id="rId11" display="2843833799@qq.com" xr:uid="{F1DC5139-2F6E-4F67-A603-69A1F547A48D}"/>
+    <hyperlink ref="D14" r:id="rId12" display="2843833799@qq.com" xr:uid="{8477F8C2-32B3-40FB-8E92-0BE0DBFF894A}"/>
+    <hyperlink ref="D18" r:id="rId13" display="2843833799@qq.com" xr:uid="{61ED9F95-F297-4CD2-90D4-DC7B8D070667}"/>
+    <hyperlink ref="D7:D9" r:id="rId14" display="2843833799@qq.com" xr:uid="{65CB35FB-A64A-4489-A28F-7595317B83B6}"/>
+    <hyperlink ref="D11:D13" r:id="rId15" display="2843833799@qq.com" xr:uid="{3B67B1E1-698C-42F0-8B99-7EB1BE77286D}"/>
+    <hyperlink ref="D15:D17" r:id="rId16" display="2843833799@qq.com" xr:uid="{C7AC637E-E4BB-4DE2-AC43-C4AA7B1BF5D0}"/>
+    <hyperlink ref="D19:D21" r:id="rId17" display="2843833799@qq.com" xr:uid="{496DFFB1-CED5-4513-9F8D-8FB085FF6EA2}"/>
+    <hyperlink ref="D22" r:id="rId18" display="2843833799@qq.com" xr:uid="{9186F140-6A8F-46F5-9C86-5B7F90A40EB5}"/>
+    <hyperlink ref="D42" r:id="rId19" display="2843833799@qq.com" xr:uid="{BA4158F5-FDD9-492F-B448-A473E05FB261}"/>
+    <hyperlink ref="D23:D25" r:id="rId20" display="2843833799@qq.com" xr:uid="{ED50AA50-A27C-454F-B89B-2012417E8E32}"/>
+    <hyperlink ref="D43:D45" r:id="rId21" display="2843833799@qq.com" xr:uid="{3A203A2A-2A33-47C1-88BB-79B2A90B5414}"/>
+    <hyperlink ref="D26" r:id="rId22" display="2843833799@qq.com" xr:uid="{9ED2F5F1-4F4D-4549-B484-74729047BD89}"/>
+    <hyperlink ref="D46" r:id="rId23" display="2843833799@qq.com" xr:uid="{99689FF9-042E-4F52-8DA7-BB79ECA858A7}"/>
+    <hyperlink ref="D30" r:id="rId24" display="2843833799@qq.com" xr:uid="{D0740E87-94D3-4CBA-A8C9-1B7EBF3895EA}"/>
+    <hyperlink ref="D50" r:id="rId25" display="2843833799@qq.com" xr:uid="{7D17F32A-47E2-4552-9EC9-D22DC78A7A3A}"/>
+    <hyperlink ref="D34" r:id="rId26" display="2843833799@qq.com" xr:uid="{97EC974A-F0E2-4BF2-9121-1946A8AC2B10}"/>
+    <hyperlink ref="D38" r:id="rId27" display="2843833799@qq.com" xr:uid="{D3CF7D39-C7B5-4508-940C-5F944498C09C}"/>
+    <hyperlink ref="D27:D29" r:id="rId28" display="2843833799@qq.com" xr:uid="{BE6C47C2-75F0-4F6C-8F14-0B1E7F67D36A}"/>
+    <hyperlink ref="D47:D49" r:id="rId29" display="2843833799@qq.com" xr:uid="{301C5951-3D42-44B5-A92E-E4A981E1CB31}"/>
+    <hyperlink ref="D31:D33" r:id="rId30" display="2843833799@qq.com" xr:uid="{B9A9545D-362C-4491-A2B2-F5A105C25EAE}"/>
+    <hyperlink ref="D51" r:id="rId31" xr:uid="{8AEFBD97-46C6-4A9F-B9B7-0E0A735B129D}"/>
+    <hyperlink ref="D35:D37" r:id="rId32" display="2843833799@qq.com" xr:uid="{182B4D7D-46B8-4100-B597-6F77595D1391}"/>
+    <hyperlink ref="D39:D41" r:id="rId33" display="2843833799@qq.com" xr:uid="{4CF8BF38-6B6B-411C-8179-435FC1574AC4}"/>
+    <hyperlink ref="D61" r:id="rId34" xr:uid="{19C12864-9FEE-44E4-A328-0122B117A4CC}"/>
+    <hyperlink ref="D62" r:id="rId35" xr:uid="{6799F600-1940-40FE-B46C-E2031092FB38}"/>
+    <hyperlink ref="D63" r:id="rId36" xr:uid="{9867DDE5-B306-4F5B-A5DE-14539047C1FB}"/>
+    <hyperlink ref="D64" r:id="rId37" xr:uid="{DC333146-67A7-4008-AB05-4275DF39F6D4}"/>
+    <hyperlink ref="D65" r:id="rId38" xr:uid="{9837C7AF-19E1-4F2D-8A6E-BA04A016DC29}"/>
+    <hyperlink ref="D67" r:id="rId39" xr:uid="{BB0DB8A1-E34C-4C6D-82FE-DC79AE04386E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId18"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId40"/>
 </worksheet>
 </file>